--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="211">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始人口数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>population</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;南阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101;陈留郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,22 +309,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105;南阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>107;汉阳郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107;汉阳郡;汉中郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107;汉中郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治所雒阳，领偃师、巩县、荥阳、中牟、新郑、密县等21县,雒阳为刺史台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,7 +392,461 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202;203;江夏郡;长沙郡</t>
+    <t>汉中郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所南郑，领城固、西城、上庸、房龄等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所江州，领宕渠、阆中、鱼复、涪陵、垫江、安汉、宣汉等14县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汉郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所雒县，领绵竹、梓潼、葭萌、德阳等11县3道，雒县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所成都，领郫县、严道、临邛等12县3道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犍为郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所武阳，领资中、江阳、朱提、汉安等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所夜郎，领且兰、漏江、邛都、台凳等牂牁越巂两郡共30县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所滇池，领连然、不韦、邪龙、哀牢等永昌益州两郡共24县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箕谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜谷口与褒水上源一段的伐鱼河谷道，位于五丈原和马尾河谷之间，谷形如簸箕，又称箕谷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水关陆路北通秦陇，南接葭萌；水路溯白龙江而上可得到甘南，下可达巴渝，是一重要军事关隘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关居于大剑山中断处，绝崖断离，两壁相对，直入云霄，峰峦倚天似剑，其状似门，故称剑门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平关，南倚鸡公山，北濒嘉陵江，地势极为险要，南可入川，北通略阳，西至陇南，东达汉中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扞关是古代蜀、楚通道的名关险隘，两岸高山凌江夹峙，自秦汉以来都是兵家必争之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;305;9017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;304;306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;汉阳郡;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;汉阳郡;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;304;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阳郡;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;9014;9015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牂牁郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扞关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所涿县，领范阳、良乡等7县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所蓟县，领广阳、昌平等5县，蓟县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上谷郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所高柳，领东安阳、代县等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所沮阳，领居庸、涿鹿等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所渔阳，领平谷、安乐等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右北平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所土垠，领无终、阳乐、令支等右北平辽西两郡共9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽东郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所襄平，领新昌、昌黎、西安平、安市等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄菟郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所高句丽，领上殷台、侯城等5县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐浪郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所朝鲜，领占蝉、增地、带方、列口等18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;中山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;405;406;河间国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404;雁门郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406;408;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所番禺，领博罗、四会、揭阳等7县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍梧郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所广信，领高要、富川、荔浦等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁林郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所布山，领桂林、潭中等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合浦郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所合浦，领徐闻、高凉、朱崖等5县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交趾郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所龙编，领苟漏、曲阳、朱鸢、望海等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九真郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所胥浦，领咸懽、西卷等九真日南两郡共10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;503;505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504;506;307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306;505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所宛县，领叶县、新野、鲁阳、博望、平氏、涅阳、邓县、武当、丹水等36县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所江陵，领秭归、当阳、华容、襄阳、宜城、枝江、夷陵、州陵等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始人口数量（单位万人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所西陵，领竟陵、云杜、沙羡、蕲春、安陆等14县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所泉陵，领零陵、湘乡、邵阳、烝阳等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所郴县，领耒阳、临武、桂阳、曲江等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临沅，领汉寿、孱陵、零阳、沅陵、迁陵等12县，汉寿为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临湘，领攸县、安城、益阳、醴陵等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆口又叫陆溪口，位于赤壁市陆水湖出长江口，历史上是兵家重地。</t>
+  </si>
+  <si>
+    <t>汉津又叫沙洋，位于湖北省荆门市境内的汉江西岸，古时这里设有官渡汉津渡口故名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沔口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉沔本一水，汉入江处谓之沔口，即今湖北汉口。</t>
+  </si>
+  <si>
+    <t>101;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阳郡;601;9012;9013;9014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;颍川郡;汝南郡;9002;9009;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>604;9017;9018;9019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫章郡;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503;605;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502;504;604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;604;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504;605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202;203;603;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306;602;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305;307;606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206;604;605;606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;602;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602;603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603;9018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,12 +871,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -459,12 +899,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,8 +1227,8 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.125" customWidth="1"/>
     <col min="9" max="9" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -800,561 +1246,570 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2">
+        <v>70</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>9001</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>69</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9002</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F10" s="2">
+        <v>84</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9003</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>9004</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>9005</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>9006</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="F14" s="2">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>9007</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E15" s="2">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>9008</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1">
-        <v>700000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="E16" s="2">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>9009</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>9010</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E18" s="2">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>9011</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>95</v>
-      </c>
-      <c r="G3" s="1">
-        <v>300000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="E19" s="2">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>9012</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1">
-        <v>230000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E20" s="2">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1">
-        <v>380000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>140000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1">
-        <v>190000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>9001</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1">
-        <v>84</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>9003</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1">
-        <v>93</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9004</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>9005</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>90</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>9006</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>9007</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1">
-        <v>59</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>9008</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1">
-        <v>58</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>9009</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>9010</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>9011</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>9012</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1362,7 +1817,7 @@
         <v>201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1377,13 +1832,13 @@
         <v>55</v>
       </c>
       <c r="G21" s="1">
-        <v>320000</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1391,7 +1846,7 @@
         <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1406,13 +1861,13 @@
         <v>69</v>
       </c>
       <c r="G22" s="1">
-        <v>360000</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1420,7 +1875,7 @@
         <v>203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1435,13 +1890,13 @@
         <v>53</v>
       </c>
       <c r="G23" s="1">
-        <v>310000</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1449,7 +1904,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1464,13 +1919,13 @@
         <v>89</v>
       </c>
       <c r="G24" s="1">
-        <v>240000</v>
+        <v>24</v>
       </c>
       <c r="H24" s="1">
         <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1478,7 +1933,7 @@
         <v>205</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1493,13 +1948,13 @@
         <v>90</v>
       </c>
       <c r="G25" s="1">
-        <v>350000</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1507,7 +1962,7 @@
         <v>206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1522,13 +1977,13 @@
         <v>37</v>
       </c>
       <c r="G26" s="1">
-        <v>460000</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1536,7 +1991,7 @@
         <v>9013</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1554,10 +2009,1083 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>301</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>34</v>
+      </c>
+      <c r="F28" s="2">
+        <v>95</v>
+      </c>
+      <c r="G28" s="2">
+        <v>26</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>302</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2">
+        <v>91</v>
+      </c>
+      <c r="G29" s="2">
+        <v>38</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>303</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I27" t="s">
-        <v>94</v>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2">
+        <v>31</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>304</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2">
+        <v>62</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>305</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2">
+        <v>59</v>
+      </c>
+      <c r="G32" s="2">
+        <v>22</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>306</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2">
+        <v>68</v>
+      </c>
+      <c r="G33" s="2">
+        <v>25</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>307</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2">
+        <v>48</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>9013</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>27</v>
+      </c>
+      <c r="F35" s="2">
+        <v>96</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>9014</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>9015</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>39</v>
+      </c>
+      <c r="F37" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>9016</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>46</v>
+      </c>
+      <c r="F38" s="2">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>9017</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2">
+        <v>130</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>401</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>402</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>403</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>27</v>
+      </c>
+      <c r="F42" s="1">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>404</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>26</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>405</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1">
+        <v>55</v>
+      </c>
+      <c r="G44" s="1">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>406</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>407</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1">
+        <v>130</v>
+      </c>
+      <c r="G46" s="1">
+        <v>26</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>408</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1">
+        <v>12</v>
+      </c>
+      <c r="F47" s="1">
+        <v>154</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>409</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>157</v>
+      </c>
+      <c r="G48" s="1">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>501</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" s="2">
+        <v>103</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>502</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>34</v>
+      </c>
+      <c r="F50" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" s="2">
+        <v>13</v>
+      </c>
+      <c r="H50" s="2">
+        <v>503</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>503</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
+        <v>35</v>
+      </c>
+      <c r="F51" s="2">
+        <v>62</v>
+      </c>
+      <c r="G51" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>504</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
+      <c r="F52" s="2">
+        <v>57</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>505</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>63</v>
+      </c>
+      <c r="F53" s="2">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2">
+        <v>25</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>506</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>79</v>
+      </c>
+      <c r="F54" s="2">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2">
+        <v>505</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>601</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1">
+        <v>43</v>
+      </c>
+      <c r="H55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>602</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>61</v>
+      </c>
+      <c r="F56" s="1">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>603</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>55</v>
+      </c>
+      <c r="F57" s="1">
+        <v>61</v>
+      </c>
+      <c r="G57" s="1">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>604</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1">
+        <v>111</v>
+      </c>
+      <c r="F58" s="1">
+        <v>24</v>
+      </c>
+      <c r="G58" s="1">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>605</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1">
+        <v>121</v>
+      </c>
+      <c r="F59" s="1">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>606</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>78</v>
+      </c>
+      <c r="F60" s="1">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>607</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>89</v>
+      </c>
+      <c r="F61" s="1">
+        <v>40</v>
+      </c>
+      <c r="G61" s="1">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>9018</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1">
+        <v>56</v>
+      </c>
+      <c r="F62" s="1">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>208</v>
+      </c>
+      <c r="I62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>9019</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1">
+        <v>65</v>
+      </c>
+      <c r="F63" s="1">
+        <v>50</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>9020</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1">
+        <v>56</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +3100,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,37 +3151,37 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="355">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,22 +166,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>官渡;魏郡;9005;9004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原郡;9006;9007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>105;9010;9011;9012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>105;9007;9008;安定郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>106;107;9009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,22 +273,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;陈留郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101;102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102;上党郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103;西河郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103;106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107;汉阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治所雒阳，领偃师、巩县、荥阳、中牟、新郑、密县等21县,雒阳为刺史台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +340,6 @@
     <t>濡须口实指濡须山和七宝山之间的水口，两山对峙，形势险要，为巢湖的出口，曾为吴魏相争的古战场。</t>
   </si>
   <si>
-    <t>203;9013;广陵郡;沛国;汝南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丹阳郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,18 +380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治所雒县，领绵竹、梓潼、葭萌、德阳等11县3道，雒县为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蜀郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治所成都，领郫县、严道、临邛等12县3道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>犍为郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,14 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>301;汉阳郡;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107;汉阳郡;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>107;301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉阳郡;9016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301;9016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,18 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>402;中山国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;405;406;河间国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404;雁门郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>403;405</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>治所龙编，领苟漏、曲阳、朱鸢、望海等12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>九真郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,14 +718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉阳郡;601;9012;9013;9014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;颍川郡;汝南郡;9002;9009;9018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>604;9017;9018;9019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豫章郡;9019;9020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>503;605;607</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,6 +767,658 @@
   </si>
   <si>
     <t>603;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陇西郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所狄道，领首阳、枹罕、白石等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所冀县，领阿阳、陇县、上邽、下辨、武都等汉阳武都两郡共19县，陇县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临泾，领高平、朝那、彭阳、富平、灵州等安定北郡两郡共13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所允吾，领金城、榆中等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武威郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒泉郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所姑臧，领张掖、觻得、删丹、骊靬、居延等武威张掖两郡共27县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所福禄，领敦煌、广至、龙勒等酒泉敦煌两郡共15县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>703;706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702;703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;703;704;9010;9011;9013;9015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;702;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;702;9012;9013;9014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;702;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701;705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;704;9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上党郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所长子，领屯留、襄垣、泫氏、高都等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所晋阳，领界休、榆次、盂县、曲阳、祁县等15县，晋阳为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西河郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所离石，领肤施、雕阴、中阳等西河上郡两郡共18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所九原，领云中、临戎等五原云中朔方三郡共26县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所阴馆，领繁峙、善无、马邑等雁门定襄两郡共19县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门关北依雁北高原，南屏忻定盆地，历为中国北境重镇要隘和重要的戍边军政治所。</t>
+  </si>
+  <si>
+    <t>故关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故关又名旧关、井陉关、井陉口、土门关，为战国赵长城的重要关卡，冀晋通衢中最具战略地位的冲要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关是上党盆地通往平原的要道，扼晋冀之咽喉，历来为兵家必争之地。</t>
+  </si>
+  <si>
+    <t>孟门渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟门渡又叫孟门关，东依吕梁，西滨黄河，南靠要塞，是控山带河的重要关隘，历来为兵家必争之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古延津有孟津、棘津、延寿津、灵昌津、石济津，延续百里，首位相接，故称为延津，兵家必争之地。</t>
+  </si>
+  <si>
+    <t>魏郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鹿郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河间国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9005;9023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所雒县，领绵竹、梓潼、葭萌、德阳等11县3道，雒县为旧刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所成都，领郫县、严道、临邛等12县3道，成都为新刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所龙编，领苟漏、曲阳、朱鸢、望海等12县，龙编为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9006;9007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103;801;803;9021;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9006;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106;702;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>805;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403;804;9021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404;805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801;901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704;803;804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;903;905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902;904;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;405;406;906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;905;907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905;906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所廮陶，领任县、钜鹿、曲周、广宗等15县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所元氏，领南行唐、灵寿、井陉、真定等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所卢奴，领新市、唐县、蠡吾、上曲阳等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所信都，领阜城、南宫、武邑、饶阳、甘陵、广川等安平清河两郡共20县，信都为新刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所邺县，领内黄、黎阳、魏县、馆陶、邯郸等魏县赵国两郡共20县，邺县为旧刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所乐成，领中水、高阳、文安、东平舒等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所南皮，领浮阳、东光、阳信等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐安国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莱郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅玡郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭城国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任城国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济阴郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颍川郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓亭津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓亭津在北古黄河上，为东汉以后黄河南北重要渡口。</t>
+  </si>
+  <si>
+    <t>白马津位于黄河故道南岸渡口处，是古代兵事和行旅客商往来的重要南北通道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官渡位于黄河之南，是从河北进军河南地界的军事要冲之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所东平陵，领土鼓、邹平、历城等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所平原，领高唐、祝阿、乐陵、厌次等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临济，领乐安、博昌、寿光等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所剧县，领都昌、安丘、高密、即墨等18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所黄县，领牟平、曲城、昌阳等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所郯县，领昌虑、阴平、利城、赣榆等13县，郯县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临菑，领昌国、临朐等6县，临菑为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所开阳，领琅玡、西海、莒县、临沂等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所彭城，领吕县、傅阳等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所广陵，领射阳、射阳、海陵、海西等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所下邳，领淮阴、淮浦、盱眙、东城等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所陈留，领尉氏、考城、长垣、封丘、扶沟等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所濮阳，领东阿、范县、临邑、聊城、卢县、茌平等济北东郡两郡共20县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所任城，领无盐、宁阳等任城东平两郡共10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所昌邑，领东缗、金乡等10县，昌邑为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所定陶，领鄄城、单父、成武等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所阳翟，领襄城、舞阳、临颍、许县、鄢陵、长社等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所平舆，领上蔡、南顿、汝南、期思、西华、鮦阳、慎县、新蔡、召陵、固始等37县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所睢阳，领夏邑、砀山、宁陵等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所相县，领萧县、沛县、谯县、蕲县、龙亢、太丘等21县，谯县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所陈县，领阳夏、武平等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所鲁县，领卞县、邹县等6县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所奉高，领钜平、莱芜、南城等共12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1006;1204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905;1001;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902;906;907;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005;1006;1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1003;1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1102;1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004;1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;1105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103;1104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206;1301;1305;9003;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9027;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205;1306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1306;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203;1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1205;1303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;1201;9025;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;9005;9004;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;1202;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;902;9023;9025;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1202;1204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;1201;1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;1301;1302;9002;9009;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203;9013;1104;沛国;1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;601;1301;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206;1304;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;1103;1303;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101;1105;1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203;1204;1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1302;1303;1304</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,7 +1838,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1287,7 +1859,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1313,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
@@ -1342,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -1371,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>22</v>
@@ -1400,7 +1972,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>24</v>
@@ -1429,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
@@ -1458,7 +2030,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>28</v>
@@ -1469,7 +2041,7 @@
         <v>9001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1487,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1498,7 +2070,7 @@
         <v>9002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -1516,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1527,7 +2099,7 @@
         <v>9003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1545,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1556,7 +2128,7 @@
         <v>9004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1574,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1585,7 +2157,7 @@
         <v>9005</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -1603,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1614,7 +2186,7 @@
         <v>9006</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1632,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1643,7 +2215,7 @@
         <v>9007</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1661,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1672,7 +2244,7 @@
         <v>9008</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -1690,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1701,7 +2273,7 @@
         <v>9009</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -1719,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1730,7 +2302,7 @@
         <v>9010</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -1748,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1759,7 +2331,7 @@
         <v>9011</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -1777,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1788,7 +2360,7 @@
         <v>9012</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1806,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1817,7 +2389,7 @@
         <v>201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1835,10 +2407,10 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1846,7 +2418,7 @@
         <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1864,10 +2436,10 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1875,7 +2447,7 @@
         <v>203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1893,10 +2465,10 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1904,7 +2476,7 @@
         <v>204</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1925,7 +2497,7 @@
         <v>205</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1933,7 +2505,7 @@
         <v>205</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1951,10 +2523,10 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1962,7 +2534,7 @@
         <v>206</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1980,10 +2552,10 @@
         <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1991,7 +2563,7 @@
         <v>9013</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -2009,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2020,7 +2592,7 @@
         <v>301</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -2038,10 +2610,10 @@
         <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2049,7 +2621,7 @@
         <v>302</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2067,10 +2639,10 @@
         <v>38</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2078,7 +2650,7 @@
         <v>303</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -2096,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2107,7 +2679,7 @@
         <v>304</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2125,10 +2697,10 @@
         <v>42</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2136,7 +2708,7 @@
         <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -2154,10 +2726,10 @@
         <v>22</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2165,7 +2737,7 @@
         <v>306</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -2183,10 +2755,10 @@
         <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2194,7 +2766,7 @@
         <v>307</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -2212,10 +2784,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2223,7 +2795,7 @@
         <v>9013</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2241,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2252,7 +2824,7 @@
         <v>9014</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2270,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2281,7 +2853,7 @@
         <v>9015</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2299,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2310,7 +2882,7 @@
         <v>9016</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
@@ -2328,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2339,7 +2911,7 @@
         <v>9017</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
@@ -2357,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2368,7 +2940,7 @@
         <v>401</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -2386,10 +2958,10 @@
         <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2397,7 +2969,7 @@
         <v>402</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2415,10 +2987,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2426,7 +2998,7 @@
         <v>403</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -2444,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2455,7 +3027,7 @@
         <v>404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -2473,10 +3045,10 @@
         <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2484,7 +3056,7 @@
         <v>405</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -2502,10 +3074,10 @@
         <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2513,7 +3085,7 @@
         <v>406</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -2531,10 +3103,10 @@
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2542,7 +3114,7 @@
         <v>407</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -2560,10 +3132,10 @@
         <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2571,7 +3143,7 @@
         <v>408</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -2589,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2600,7 +3172,7 @@
         <v>409</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
@@ -2618,10 +3190,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2629,7 +3201,7 @@
         <v>501</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
@@ -2647,10 +3219,10 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2658,7 +3230,7 @@
         <v>502</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
@@ -2679,7 +3251,7 @@
         <v>503</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2687,7 +3259,7 @@
         <v>503</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -2705,10 +3277,10 @@
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2716,7 +3288,7 @@
         <v>504</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
@@ -2734,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2745,7 +3317,7 @@
         <v>505</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
@@ -2763,10 +3335,10 @@
         <v>25</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2774,7 +3346,7 @@
         <v>506</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -2795,7 +3367,7 @@
         <v>505</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2803,7 +3375,7 @@
         <v>601</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -2821,10 +3393,10 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>346</v>
       </c>
       <c r="I55" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2832,7 +3404,7 @@
         <v>602</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2850,10 +3422,10 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2861,7 +3433,7 @@
         <v>603</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -2879,10 +3451,10 @@
         <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2890,7 +3462,7 @@
         <v>604</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
@@ -2908,10 +3480,10 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I58" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2919,7 +3491,7 @@
         <v>605</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -2937,10 +3509,10 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2948,7 +3520,7 @@
         <v>606</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -2966,10 +3538,10 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="I60" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2977,7 +3549,7 @@
         <v>607</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2995,10 +3567,10 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -3006,7 +3578,7 @@
         <v>9018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -3024,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -3035,7 +3607,7 @@
         <v>9019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
@@ -3053,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -3064,7 +3636,7 @@
         <v>9020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -3082,10 +3654,1431 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="I64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>701</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>192</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2">
+        <v>79</v>
+      </c>
+      <c r="F65" s="2">
+        <v>83</v>
+      </c>
+      <c r="G65" s="2">
+        <v>12</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>702</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2">
+        <v>89</v>
+      </c>
+      <c r="F66" s="2">
+        <v>98</v>
+      </c>
+      <c r="G66" s="2">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>703</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>71</v>
+      </c>
+      <c r="F67" s="2">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>704</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2">
+        <v>74</v>
+      </c>
+      <c r="F68" s="2">
+        <v>119</v>
+      </c>
+      <c r="G68" s="2">
+        <v>12</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>705</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" s="2">
+        <v>68</v>
+      </c>
+      <c r="G69" s="2">
+        <v>13</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>706</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2">
+        <v>16</v>
+      </c>
+      <c r="F70" s="2">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6</v>
+      </c>
+      <c r="H70" s="2">
+        <v>705</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>801</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>72</v>
+      </c>
+      <c r="F71" s="1">
+        <v>43</v>
+      </c>
+      <c r="G71" s="1">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>241</v>
+      </c>
+      <c r="I71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>802</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>48</v>
+      </c>
+      <c r="F72" s="1">
+        <v>39</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>247</v>
+      </c>
+      <c r="I72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>803</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>54</v>
+      </c>
+      <c r="F73" s="1">
+        <v>22</v>
+      </c>
+      <c r="G73" s="1">
+        <v>8</v>
+      </c>
+      <c r="H73" t="s">
+        <v>248</v>
+      </c>
+      <c r="I73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>804</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8</v>
+      </c>
+      <c r="F74" s="1">
+        <v>8</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>251</v>
+      </c>
+      <c r="I74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>805</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>26</v>
+      </c>
+      <c r="F75" s="1">
+        <v>40</v>
+      </c>
+      <c r="G75" s="1">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>252</v>
+      </c>
+      <c r="I75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>9021</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>48</v>
+      </c>
+      <c r="F76" s="1">
+        <v>43</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>254</v>
+      </c>
+      <c r="I76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>9022</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45</v>
+      </c>
+      <c r="F77" s="1">
+        <v>53</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>255</v>
+      </c>
+      <c r="I77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>9023</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1">
+        <v>66</v>
+      </c>
+      <c r="F78" s="1">
+        <v>51</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>256</v>
+      </c>
+      <c r="I78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>9024</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1">
+        <v>57</v>
+      </c>
+      <c r="F79" s="1">
+        <v>18</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>257</v>
+      </c>
+      <c r="I79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>9025</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2">
+        <v>84</v>
+      </c>
+      <c r="F80" s="2">
+        <v>60</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>901</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" s="2">
+        <v>60</v>
+      </c>
+      <c r="G81" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>902</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2">
+        <v>51</v>
+      </c>
+      <c r="F82" s="2">
+        <v>66</v>
+      </c>
+      <c r="G82" s="2">
+        <v>30</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>903</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2">
+        <v>46</v>
+      </c>
+      <c r="F83" s="2">
+        <v>61</v>
+      </c>
+      <c r="G83" s="2">
+        <v>26</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>904</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2">
+        <v>39</v>
+      </c>
+      <c r="F84" s="2">
+        <v>67</v>
+      </c>
+      <c r="G84" s="2">
+        <v>27</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>905</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2">
+        <v>53</v>
+      </c>
+      <c r="F85" s="2">
+        <v>74</v>
+      </c>
+      <c r="G85" s="2">
+        <v>35</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>906</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45</v>
+      </c>
+      <c r="F86" s="2">
+        <v>85</v>
+      </c>
+      <c r="G86" s="2">
+        <v>32</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>907</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9</v>
+      </c>
+      <c r="E87" s="2">
+        <v>47</v>
+      </c>
+      <c r="F87" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" s="2">
+        <v>50</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16</v>
+      </c>
+      <c r="F88" s="1">
+        <v>65</v>
+      </c>
+      <c r="G88" s="1">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s">
+        <v>323</v>
+      </c>
+      <c r="I88" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1">
+        <v>53</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>324</v>
+      </c>
+      <c r="I89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1">
+        <v>10</v>
+      </c>
+      <c r="F90" s="1">
+        <v>70</v>
+      </c>
+      <c r="G90" s="1">
+        <v>21</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1006</v>
+      </c>
+      <c r="I90" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1">
+        <v>17</v>
+      </c>
+      <c r="F91" s="1">
+        <v>81</v>
+      </c>
+      <c r="G91" s="1">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>326</v>
+      </c>
+      <c r="I91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>100</v>
+      </c>
+      <c r="G92" s="1">
+        <v>24</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1004</v>
+      </c>
+      <c r="I92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1">
+        <v>15</v>
+      </c>
+      <c r="F93" s="1">
+        <v>76</v>
+      </c>
+      <c r="G93" s="1">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s">
+        <v>327</v>
+      </c>
+      <c r="I93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45</v>
+      </c>
+      <c r="F94" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" s="2">
+        <v>35</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2">
+        <v>37</v>
+      </c>
+      <c r="F95" s="2">
+        <v>80</v>
+      </c>
+      <c r="G95" s="2">
+        <v>23</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>1103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2">
+        <v>50</v>
+      </c>
+      <c r="F96" s="2">
+        <v>63</v>
+      </c>
+      <c r="G96" s="2">
+        <v>25</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>1104</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" s="2">
+        <v>89</v>
+      </c>
+      <c r="G97" s="2">
+        <v>20</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>1105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2">
+        <v>55</v>
+      </c>
+      <c r="F98" s="2">
+        <v>71</v>
+      </c>
+      <c r="G98" s="2">
+        <v>31</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43</v>
+      </c>
+      <c r="F99" s="1">
+        <v>29</v>
+      </c>
+      <c r="G99" s="1">
+        <v>43</v>
+      </c>
+      <c r="H99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1">
+        <v>39</v>
+      </c>
+      <c r="G100" s="1">
+        <v>41</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1">
+        <v>35</v>
+      </c>
+      <c r="F101" s="1">
+        <v>57</v>
+      </c>
+      <c r="G101" s="1">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>335</v>
+      </c>
+      <c r="I101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1">
+        <v>24</v>
+      </c>
+      <c r="F102" s="1">
+        <v>61</v>
+      </c>
+      <c r="G102" s="1">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
+        <v>336</v>
+      </c>
+      <c r="I102" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1">
+        <v>35</v>
+      </c>
+      <c r="F103" s="1">
+        <v>49</v>
+      </c>
+      <c r="G103" s="1">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s">
+        <v>337</v>
+      </c>
+      <c r="I103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>1206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
+        <v>38</v>
+      </c>
+      <c r="F104" s="1">
+        <v>43</v>
+      </c>
+      <c r="G104" s="1">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s">
+        <v>338</v>
+      </c>
+      <c r="I104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>9026</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="1">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1">
+        <v>29</v>
+      </c>
+      <c r="F105" s="1">
+        <v>41</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>339</v>
+      </c>
+      <c r="I105" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>9027</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1">
+        <v>12</v>
+      </c>
+      <c r="E106" s="1">
+        <v>33</v>
+      </c>
+      <c r="F106" s="1">
+        <v>35</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>342</v>
+      </c>
+      <c r="I106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>9028</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1">
+        <v>12</v>
+      </c>
+      <c r="E107" s="1">
+        <v>22</v>
+      </c>
+      <c r="F107" s="1">
+        <v>29</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>344</v>
+      </c>
+      <c r="I107" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>1301</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>13</v>
+      </c>
+      <c r="E108" s="2">
+        <v>52</v>
+      </c>
+      <c r="F108" s="2">
+        <v>20</v>
+      </c>
+      <c r="G108" s="2">
+        <v>41</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>1302</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2">
+        <v>13</v>
+      </c>
+      <c r="E109" s="2">
+        <v>68</v>
+      </c>
+      <c r="F109" s="2">
+        <v>35</v>
+      </c>
+      <c r="G109" s="2">
+        <v>50</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>1303</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2">
+        <v>48</v>
+      </c>
+      <c r="F110" s="2">
+        <v>46</v>
+      </c>
+      <c r="G110" s="2">
+        <v>22</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>1304</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="2">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>55</v>
+      </c>
+      <c r="F111" s="2">
+        <v>59</v>
+      </c>
+      <c r="G111" s="2">
+        <v>25</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>1305</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2">
+        <v>53</v>
+      </c>
+      <c r="F112" s="2">
+        <v>36</v>
+      </c>
+      <c r="G112" s="2">
+        <v>20</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>1306</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2">
+        <v>13</v>
+      </c>
+      <c r="E113" s="2">
+        <v>36</v>
+      </c>
+      <c r="F113" s="2">
+        <v>60</v>
+      </c>
+      <c r="G113" s="2">
+        <v>20</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>205;206;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201;206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,1033 +388,1037 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>永昌郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所滇池，领连然、不韦、邪龙、哀牢等永昌益州两郡共24县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箕谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜谷口与褒水上源一段的伐鱼河谷道，位于五丈原和马尾河谷之间，谷形如簸箕，又称箕谷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水关陆路北通秦陇，南接葭萌；水路溯白龙江而上可得到甘南，下可达巴渝，是一重要军事关隘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑门关居于大剑山中断处，绝崖断离，两壁相对，直入云霄，峰峦倚天似剑，其状似门，故称剑门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平关，南倚鸡公山，北濒嘉陵江，地势极为险要，南可入川，北通略阳，西至陇南，东达汉中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;305;9017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;304;306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;304;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303;9014;9015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所涿县，领范阳、良乡等7县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所蓟县，领广阳、昌平等5县，蓟县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上谷郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所高柳，领东安阳、代县等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所沮阳，领居庸、涿鹿等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所渔阳，领平谷、安乐等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右北平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所土垠，领无终、阳乐、令支等右北平辽西两郡共9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽东郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所襄平，领新昌、昌黎、西安平、安市等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄菟郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所高句丽，领上殷台、侯城等5县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐浪郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所朝鲜，领占蝉、增地、带方、列口等18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403;405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>406;408;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所番禺，领博罗、四会、揭阳等7县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍梧郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所广信，领高要、富川、荔浦等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁林郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所布山，领桂林、潭中等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合浦郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所合浦，领徐闻、高凉、朱崖等5县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交趾郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九真郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所胥浦，领咸懽、西卷等九真日南两郡共10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;503;505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504;506;307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306;505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所宛县，领叶县、新野、鲁阳、博望、平氏、涅阳、邓县、武当、丹水等36县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所江陵，领秭归、当阳、华容、襄阳、宜城、枝江、夷陵、州陵等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始人口数量（单位万人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所西陵，领竟陵、云杜、沙羡、蕲春、安陆等14县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所泉陵，领零陵、湘乡、邵阳、烝阳等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所郴县，领耒阳、临武、桂阳、曲江等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临沅，领汉寿、孱陵、零阳、沅陵、迁陵等12县，汉寿为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临湘，领攸县、安城、益阳、醴陵等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆口又叫陆溪口，位于赤壁市陆水湖出长江口，历史上是兵家重地。</t>
+  </si>
+  <si>
+    <t>汉津又叫沙洋，位于湖北省荆门市境内的汉江西岸，古时这里设有官渡汉津渡口故名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沔口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉沔本一水，汉入江处谓之沔口，即今湖北汉口。</t>
+  </si>
+  <si>
+    <t>101;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>604;9017;9018;9019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302;602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503;605;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502;504;604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;604;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504;605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202;203;603;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306;602;607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305;307;606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206;604;605;606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;602;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602;603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陇西郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所狄道，领首阳、枹罕、白石等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所冀县，领阿阳、陇县、上邽、下辨、武都等汉阳武都两郡共19县，陇县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临泾，领高平、朝那、彭阳、富平、灵州等安定北郡两郡共13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所允吾，领金城、榆中等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武威郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒泉郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所姑臧，领张掖、觻得、删丹、骊靬、居延等武威张掖两郡共27县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所福禄，领敦煌、广至、龙勒等酒泉敦煌两郡共15县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>703;706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702;703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;703;704;9010;9011;9013;9015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107;702;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;702;9012;9013;9014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702;9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;702;9011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701;705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105;704;9007;9008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上党郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所长子，领屯留、襄垣、泫氏、高都等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所晋阳，领界休、榆次、盂县、曲阳、祁县等15县，晋阳为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西河郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所离石，领肤施、雕阴、中阳等西河上郡两郡共18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所九原，领云中、临戎等五原云中朔方三郡共26县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所阴馆，领繁峙、善无、马邑等雁门定襄两郡共19县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁门关北依雁北高原，南屏忻定盆地，历为中国北境重镇要隘和重要的戍边军政治所。</t>
+  </si>
+  <si>
+    <t>故关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故关又名旧关、井陉关、井陉口、土门关，为战国赵长城的重要关卡，冀晋通衢中最具战略地位的冲要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶关是上党盆地通往平原的要道，扼晋冀之咽喉，历来为兵家必争之地。</t>
+  </si>
+  <si>
+    <t>孟门渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟门渡又叫孟门关，东依吕梁，西滨黄河，南靠要塞，是控山带河的重要关隘，历来为兵家必争之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古延津有孟津、棘津、延寿津、灵昌津、石济津，延续百里，首位相接，故称为延津，兵家必争之地。</t>
+  </si>
+  <si>
+    <t>魏郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鹿郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河间国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9005;9023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所雒县，领绵竹、梓潼、葭萌、德阳等11县3道，雒县为旧刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所成都，领郫县、严道、临邛等12县3道，成都为新刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所龙编，领苟漏、曲阳、朱鸢、望海等12县，龙编为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9006;9007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103;801;803;9021;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;9006;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106;702;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>805;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403;804;9021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404;805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802;903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801;901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704;803;804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;903;905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902;904;9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;405;406;906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402;905;907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905;906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所廮陶，领任县、钜鹿、曲周、广宗等15县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所元氏，领南行唐、灵寿、井陉、真定等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所卢奴，领新市、唐县、蠡吾、上曲阳等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所信都，领阜城、南宫、武邑、饶阳、甘陵、广川等安平清河两郡共20县，信都为新刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所邺县，领内黄、黎阳、魏县、馆陶、邯郸等魏县赵国两郡共20县，邺县为旧刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所乐成，领中水、高阳、文安、东平舒等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所南皮，领浮阳、东光、阳信等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐安国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莱郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琅玡郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭城国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任城国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济阴郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颍川郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓亭津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓亭津在北古黄河上，为东汉以后黄河南北重要渡口。</t>
+  </si>
+  <si>
+    <t>白马津位于黄河故道南岸渡口处，是古代兵事和行旅客商往来的重要南北通道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官渡位于黄河之南，是从河北进军河南地界的军事要冲之地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所东平陵，领土鼓、邹平、历城等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所平原，领高唐、祝阿、乐陵、厌次等10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临济，领乐安、博昌、寿光等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所剧县，领都昌、安丘、高密、即墨等18县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所黄县，领牟平、曲城、昌阳等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所郯县，领昌虑、阴平、利城、赣榆等13县，郯县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所临菑，领昌国、临朐等6县，临菑为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所开阳，领琅玡、西海、莒县、临沂等13县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所彭城，领吕县、傅阳等8县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所广陵，领射阳、射阳、海陵、海西等12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所下邳，领淮阴、淮浦、盱眙、东城等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所陈留，领尉氏、考城、长垣、封丘、扶沟等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所濮阳，领东阿、范县、临邑、聊城、卢县、茌平等济北东郡两郡共20县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所任城，领无盐、宁阳等任城东平两郡共10县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所昌邑，领东缗、金乡等10县，昌邑为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所定陶，领鄄城、单父、成武等11县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所阳翟，领襄城、舞阳、临颍、许县、鄢陵、长社等17县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所平舆，领上蔡、南顿、汝南、期思、西华、鮦阳、慎县、新蔡、召陵、固始等37县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所睢阳，领夏邑、砀山、宁陵等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所相县，领萧县、沛县、谯县、蕲县、龙亢、太丘等21县，谯县为刺史台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所陈县，领阳夏、武平等9县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所鲁县，领卞县、邹县等6县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治所奉高，领钜平、莱芜、南城等共12县。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1006;1204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905;1001;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902;906;907;1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005;1006;1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1003;1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1102;1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004;1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;1105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1103;1104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206;1301;1305;9003;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9027;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205;1306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1306;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203;1206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1205;1303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;1201;9025;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;9005;9004;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;1202;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;902;9023;9025;9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002;1202;1204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;1201;1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;1301;1302;9002;9009;9018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;601;1301;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206;1304;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;1103;1303;1305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101;1105;1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203;1204;1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201;1302;1303;1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205;206;9029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203;9029;1104;沛国;1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>治所夜郎，领且兰、漏江、邛都、台凳等牂牁越巂两郡共30县。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永昌郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所滇池，领连然、不韦、邪龙、哀牢等永昌益州两郡共24县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箕谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳平关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白水关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑门关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斜谷口与褒水上源一段的伐鱼河谷道，位于五丈原和马尾河谷之间，谷形如簸箕，又称箕谷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白水关陆路北通秦陇，南接葭萌；水路溯白龙江而上可得到甘南，下可达巴渝，是一重要军事关隘。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑门关居于大剑山中断处，绝崖断离，两壁相对，直入云霄，峰峦倚天似剑，其状似门，故称剑门。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳平关，南倚鸡公山，北濒嘉陵江，地势极为险要，南可入川，北通略阳，西至陇南，东达汉中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扞关是古代蜀、楚通道的名关险隘，两岸高山凌江夹峙，自秦汉以来都是兵家必争之地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303;305;9017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303;305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>302;304;306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107;301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>302;304;9016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;9016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>303;9014;9015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牂牁郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扞关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涿郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所涿县，领范阳、良乡等7县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所蓟县，领广阳、昌平等5县，蓟县为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上谷郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所高柳，领东安阳、代县等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所沮阳，领居庸、涿鹿等8县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所渔阳，领平谷、安乐等9县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右北平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所土垠，领无终、阳乐、令支等右北平辽西两郡共9县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽东郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所襄平，领新昌、昌黎、西安平、安市等17县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄菟郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所高句丽，领上殷台、侯城等5县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐浪郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所朝鲜，领占蝉、增地、带方、列口等18县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403;405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402;404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402;407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>406;408;409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407;409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407;408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南海郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所番禺，领博罗、四会、揭阳等7县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍梧郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所广信，领高要、富川、荔浦等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郁林郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所布山，领桂林、潭中等12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合浦郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所合浦，领徐闻、高凉、朱崖等5县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交趾郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九真郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所胥浦，领咸懽、西卷等九真日南两郡共10县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501;503;505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>504;506;307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>306;505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所宛县，领叶县、新野、鲁阳、博望、平氏、涅阳、邓县、武当、丹水等36县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所江陵，领秭归、当阳、华容、襄阳、宜城、枝江、夷陵、州陵等17县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始人口数量（单位万人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江夏郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所西陵，领竟陵、云杜、沙羡、蕲春、安陆等14县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零陵郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所泉陵，领零陵、湘乡、邵阳、烝阳等13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所郴县，领耒阳、临武、桂阳、曲江等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武陵郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所临沅，领汉寿、孱陵、零阳、沅陵、迁陵等12县，汉寿为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所临湘，领攸县、安城、益阳、醴陵等13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆口又叫陆溪口，位于赤壁市陆水湖出长江口，历史上是兵家重地。</t>
-  </si>
-  <si>
-    <t>汉津又叫沙洋，位于湖北省荆门市境内的汉江西岸，古时这里设有官渡汉津渡口故名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沔口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉沔本一水，汉入江处谓之沔口，即今湖北汉口。</t>
-  </si>
-  <si>
-    <t>101;601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105;601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>604;9017;9018;9019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>302;602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>503;605;607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>502;504;604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501;604;607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>504;605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202;203;603;607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>306;602;607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305;307;606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206;604;605;606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601;602;9020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602;603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603;9018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206;9019;9020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陇西郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所狄道，领首阳、枹罕、白石等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所冀县，领阿阳、陇县、上邽、下辨、武都等汉阳武都两郡共19县，陇县为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金城郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安定郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所临泾，领高平、朝那、彭阳、富平、灵州等安定北郡两郡共13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所允吾，领金城、榆中等10县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武威郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒泉郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所姑臧，领张掖、觻得、删丹、骊靬、居延等武威张掖两郡共27县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所福禄，领敦煌、广至、龙勒等酒泉敦煌两郡共15县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>703;706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702;703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;703;704;9010;9011;9013;9015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107;702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107;702;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601;702;9012;9013;9014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702;9016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;702;9011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701;705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105;704;9007;9008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上党郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所长子，领屯留、襄垣、泫氏、高都等13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所晋阳，领界休、榆次、盂县、曲阳、祁县等15县，晋阳为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西河郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所离石，领肤施、雕阴、中阳等西河上郡两郡共18县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五原郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所九原，领云中、临戎等五原云中朔方三郡共26县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁门郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所阴馆，领繁峙、善无、马邑等雁门定襄两郡共19县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁门关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雁门关北依雁北高原，南屏忻定盆地，历为中国北境重镇要隘和重要的戍边军政治所。</t>
-  </si>
-  <si>
-    <t>故关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故关又名旧关、井陉关、井陉口、土门关，为战国赵长城的重要关卡，冀晋通衢中最具战略地位的冲要。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壶关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>壶关是上党盆地通往平原的要道，扼晋冀之咽喉，历来为兵家必争之地。</t>
-  </si>
-  <si>
-    <t>孟门渡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟门渡又叫孟门关，东依吕梁，西滨黄河，南靠要塞，是控山带河的重要关隘，历来为兵家必争之地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古延津有孟津、棘津、延寿津、灵昌津、石济津，延续百里，首位相接，故称为延津，兵家必争之地。</t>
-  </si>
-  <si>
-    <t>魏郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨鹿郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常山国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安平国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河间国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渤海郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802;9005;9023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所雒县，领绵竹、梓潼、葭萌、德阳等11县3道，雒县为旧刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所成都，领郫县、严道、临邛等12县3道，成都为新刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所龙编，领苟漏、曲阳、朱鸢、望海等12县，龙编为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102;801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802;9006;9007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103;801;803;9021;9022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802;9006;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106;702;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>805;9024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>403;804;9021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>404;805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802;805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802;903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801;901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704;803;804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>901;903;905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>902;904;9022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402;904</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;903</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;405;406;906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402;905;907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905;906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所廮陶，领任县、钜鹿、曲周、广宗等15县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所元氏，领南行唐、灵寿、井陉、真定等12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所卢奴，领新市、唐县、蠡吾、上曲阳等12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所信都，领阜城、南宫、武邑、饶阳、甘陵、广川等安平清河两郡共20县，信都为新刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所邺县，领内黄、黎阳、魏县、馆陶、邯郸等魏县赵国两郡共20县，邺县为旧刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所乐成，领中水、高阳、文安、东平舒等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所南皮，领浮阳、东光、阳信等8县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平原郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐安国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北海国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东莱郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琅玡郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭城国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下邳国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈留郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任城国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰山郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济阴郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颍川郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汝南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沛国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官渡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓亭津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白马津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓亭津在北古黄河上，为东汉以后黄河南北重要渡口。</t>
-  </si>
-  <si>
-    <t>白马津位于黄河故道南岸渡口处，是古代兵事和行旅客商往来的重要南北通道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官渡位于黄河之南，是从河北进军河南地界的军事要冲之地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所东平陵，领土鼓、邹平、历城等10县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所平原，领高唐、祝阿、乐陵、厌次等10县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所临济，领乐安、博昌、寿光等9县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所剧县，领都昌、安丘、高密、即墨等18县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所黄县，领牟平、曲城、昌阳等13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所郯县，领昌虑、阴平、利城、赣榆等13县，郯县为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所临菑，领昌国、临朐等6县，临菑为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所开阳，领琅玡、西海、莒县、临沂等13县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所彭城，领吕县、傅阳等8县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所广陵，领射阳、射阳、海陵、海西等12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所下邳，领淮阴、淮浦、盱眙、东城等17县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所陈留，领尉氏、考城、长垣、封丘、扶沟等17县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所濮阳，领东阿、范县、临邑、聊城、卢县、茌平等济北东郡两郡共20县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所任城，领无盐、宁阳等任城东平两郡共10县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所昌邑，领东缗、金乡等10县，昌邑为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所定陶，领鄄城、单父、成武等11县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所阳翟，领襄城、舞阳、临颍、许县、鄢陵、长社等17县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所平舆，领上蔡、南顿、汝南、期思、西华、鮦阳、慎县、新蔡、召陵、固始等37县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所睢阳，领夏邑、砀山、宁陵等9县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所相县，领萧县、沛县、谯县、蕲县、龙亢、太丘等21县，谯县为刺史台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所陈县，领阳夏、武平等9县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所鲁县，领卞县、邹县等6县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治所奉高，领钜平、莱芜、南城等共12县。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002;1006;1204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905;1001;9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>902;906;907;1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005;1006;1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1003;1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1102;1103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004;1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;1105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1103;1104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206;1301;1305;9003;9026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;1201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9027;9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205;1306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1306;9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203;1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201;1205;1303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102;1201;9025;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>901;9005;9004;9026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>901;9026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>901;1202;9026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102;902;9023;9025;9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002;1202;1204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601;1201;1302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;1301;1302;9002;9009;9018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203;9013;1104;沛国;1302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;601;1301;1305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1206;1304;1305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;1103;1303;1305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101;1105;1304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203;1204;1304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201;1302;1303;1304</t>
+    <t>越西郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捍关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捍关,又叫扞关，是古代蜀、楚通道的名关险隘，两岸高山凌江夹峙，自秦汉以来都是兵家必争之地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1885,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
@@ -1914,7 +1914,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -2001,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>26</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>43</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>45</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>49</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>53</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>57</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>59</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>61</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>63</v>
@@ -2407,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I21" t="s">
         <v>71</v>
@@ -2436,7 +2436,7 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="I22" t="s">
         <v>72</v>
@@ -2465,7 +2465,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
         <v>74</v>
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1">
         <v>89</v>
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1">
         <v>90</v>
@@ -2523,7 +2523,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -2552,7 +2552,7 @@
         <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
         <v>80</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>9013</v>
+        <v>9029</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>81</v>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1">
         <v>62</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
         <v>82</v>
@@ -2592,7 +2592,7 @@
         <v>301</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -2610,10 +2610,10 @@
         <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2621,7 +2621,7 @@
         <v>302</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -2639,10 +2639,10 @@
         <v>38</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2650,7 +2650,7 @@
         <v>303</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -2668,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2679,7 +2679,7 @@
         <v>304</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         <v>42</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2708,7 +2708,7 @@
         <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -2726,10 +2726,10 @@
         <v>22</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2737,7 +2737,7 @@
         <v>306</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>352</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -2755,10 +2755,10 @@
         <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>96</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2766,7 +2766,7 @@
         <v>307</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F34" s="2">
         <v>48</v>
@@ -2784,10 +2784,10 @@
         <v>20</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2795,7 +2795,7 @@
         <v>9013</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2813,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2824,7 +2824,7 @@
         <v>9014</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2853,7 +2853,7 @@
         <v>9015</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2882,7 +2882,7 @@
         <v>9016</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2">
         <v>3</v>
@@ -2900,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2911,7 +2911,7 @@
         <v>9017</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2940,7 +2940,7 @@
         <v>401</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -2958,10 +2958,10 @@
         <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2969,7 +2969,7 @@
         <v>402</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -2987,10 +2987,10 @@
         <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2998,7 +2998,7 @@
         <v>403</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -3016,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -3045,10 +3045,10 @@
         <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -3056,7 +3056,7 @@
         <v>405</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -3074,10 +3074,10 @@
         <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -3085,7 +3085,7 @@
         <v>406</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -3103,10 +3103,10 @@
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -3114,7 +3114,7 @@
         <v>407</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -3132,10 +3132,10 @@
         <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -3143,7 +3143,7 @@
         <v>408</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -3161,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -3172,7 +3172,7 @@
         <v>409</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
@@ -3190,10 +3190,10 @@
         <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -3201,7 +3201,7 @@
         <v>501</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
@@ -3219,10 +3219,10 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -3230,7 +3230,7 @@
         <v>502</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
@@ -3251,7 +3251,7 @@
         <v>503</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -3259,7 +3259,7 @@
         <v>503</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -3277,10 +3277,10 @@
         <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
         <v>504</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
@@ -3306,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -3317,7 +3317,7 @@
         <v>505</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
@@ -3335,10 +3335,10 @@
         <v>25</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -3346,7 +3346,7 @@
         <v>506</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -3367,7 +3367,7 @@
         <v>505</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -3375,7 +3375,7 @@
         <v>601</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -3393,10 +3393,10 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -3404,7 +3404,7 @@
         <v>602</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -3422,10 +3422,10 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -3433,7 +3433,7 @@
         <v>603</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3451,10 +3451,10 @@
         <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I57" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -3462,7 +3462,7 @@
         <v>604</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
@@ -3480,10 +3480,10 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -3491,7 +3491,7 @@
         <v>605</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -3509,10 +3509,10 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I59" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -3520,7 +3520,7 @@
         <v>606</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -3538,10 +3538,10 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -3549,7 +3549,7 @@
         <v>607</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -3567,10 +3567,10 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -3578,7 +3578,7 @@
         <v>9018</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C62" s="1">
         <v>3</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -3607,7 +3607,7 @@
         <v>9019</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" s="1">
         <v>3</v>
@@ -3625,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -3636,7 +3636,7 @@
         <v>9020</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
@@ -3654,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -3665,7 +3665,7 @@
         <v>701</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2">
         <v>2</v>
@@ -3683,10 +3683,10 @@
         <v>12</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -3694,7 +3694,7 @@
         <v>702</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -3712,10 +3712,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -3723,7 +3723,7 @@
         <v>703</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C67" s="2">
         <v>2</v>
@@ -3741,10 +3741,10 @@
         <v>12</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -3752,7 +3752,7 @@
         <v>704</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -3770,10 +3770,10 @@
         <v>12</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -3781,7 +3781,7 @@
         <v>705</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
@@ -3799,10 +3799,10 @@
         <v>13</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -3810,7 +3810,7 @@
         <v>706</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
@@ -3831,7 +3831,7 @@
         <v>705</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -3839,7 +3839,7 @@
         <v>801</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
@@ -3857,10 +3857,10 @@
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -3868,7 +3868,7 @@
         <v>802</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
@@ -3886,10 +3886,10 @@
         <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3897,7 +3897,7 @@
         <v>803</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
@@ -3915,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
@@ -3926,7 +3926,7 @@
         <v>804</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -3944,10 +3944,10 @@
         <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I74" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
@@ -3955,7 +3955,7 @@
         <v>805</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -3973,10 +3973,10 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I75" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -3984,7 +3984,7 @@
         <v>9021</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -3993,7 +3993,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="1">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F76" s="1">
         <v>43</v>
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I76" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
@@ -4013,7 +4013,7 @@
         <v>9022</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I77" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -4042,7 +4042,7 @@
         <v>9023</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I78" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -4071,7 +4071,7 @@
         <v>9024</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
@@ -4089,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="I79" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -4100,7 +4100,7 @@
         <v>9025</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C80" s="2">
         <v>3</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
@@ -4129,7 +4129,7 @@
         <v>901</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -4147,10 +4147,10 @@
         <v>44</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
@@ -4158,7 +4158,7 @@
         <v>902</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -4176,10 +4176,10 @@
         <v>30</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -4187,7 +4187,7 @@
         <v>903</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -4205,10 +4205,10 @@
         <v>26</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
@@ -4216,7 +4216,7 @@
         <v>904</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -4234,10 +4234,10 @@
         <v>27</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
@@ -4245,7 +4245,7 @@
         <v>905</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         <v>35</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
@@ -4274,7 +4274,7 @@
         <v>906</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -4292,10 +4292,10 @@
         <v>32</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
@@ -4303,7 +4303,7 @@
         <v>907</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -4321,10 +4321,10 @@
         <v>50</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -4332,7 +4332,7 @@
         <v>1001</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C88" s="1">
         <v>2</v>
@@ -4350,10 +4350,10 @@
         <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I88" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -4361,7 +4361,7 @@
         <v>1002</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -4379,10 +4379,10 @@
         <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I89" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -4390,7 +4390,7 @@
         <v>1003</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C90" s="1">
         <v>2</v>
@@ -4411,7 +4411,7 @@
         <v>1006</v>
       </c>
       <c r="I90" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -4419,7 +4419,7 @@
         <v>1004</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -4437,10 +4437,10 @@
         <v>42</v>
       </c>
       <c r="H91" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I91" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
@@ -4448,7 +4448,7 @@
         <v>1005</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
@@ -4469,7 +4469,7 @@
         <v>1004</v>
       </c>
       <c r="I92" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
@@ -4477,7 +4477,7 @@
         <v>1006</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
@@ -4495,10 +4495,10 @@
         <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I93" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4506,7 +4506,7 @@
         <v>1101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -4524,10 +4524,10 @@
         <v>35</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4535,7 +4535,7 @@
         <v>1102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -4553,10 +4553,10 @@
         <v>23</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4564,7 +4564,7 @@
         <v>1103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4593,7 +4593,7 @@
         <v>1104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
@@ -4611,10 +4611,10 @@
         <v>20</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4622,7 +4622,7 @@
         <v>1105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -4640,10 +4640,10 @@
         <v>31</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -4651,7 +4651,7 @@
         <v>1201</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -4669,10 +4669,10 @@
         <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I99" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
@@ -4680,7 +4680,7 @@
         <v>1202</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -4698,10 +4698,10 @@
         <v>41</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I100" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
@@ -4709,7 +4709,7 @@
         <v>1203</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
@@ -4727,10 +4727,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I101" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
@@ -4738,7 +4738,7 @@
         <v>1204</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -4756,10 +4756,10 @@
         <v>21</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
@@ -4767,7 +4767,7 @@
         <v>1205</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -4785,10 +4785,10 @@
         <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I103" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
@@ -4796,7 +4796,7 @@
         <v>1206</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C104" s="1">
         <v>2</v>
@@ -4814,10 +4814,10 @@
         <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I104" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
@@ -4825,7 +4825,7 @@
         <v>9026</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C105" s="1">
         <v>3</v>
@@ -4834,19 +4834,19 @@
         <v>12</v>
       </c>
       <c r="E105" s="1">
+        <v>41</v>
+      </c>
+      <c r="F105" s="1">
         <v>29</v>
-      </c>
-      <c r="F105" s="1">
-        <v>41</v>
       </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I105" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
@@ -4854,7 +4854,7 @@
         <v>9027</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C106" s="1">
         <v>3</v>
@@ -4872,10 +4872,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I106" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -4883,7 +4883,7 @@
         <v>9028</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C107" s="1">
         <v>3</v>
@@ -4895,16 +4895,16 @@
         <v>22</v>
       </c>
       <c r="F107" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I107" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -4912,7 +4912,7 @@
         <v>1301</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
@@ -4930,10 +4930,10 @@
         <v>41</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -4941,7 +4941,7 @@
         <v>1302</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
@@ -4959,10 +4959,10 @@
         <v>50</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
@@ -4970,7 +4970,7 @@
         <v>1303</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -4988,10 +4988,10 @@
         <v>22</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -4999,7 +4999,7 @@
         <v>1304</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -5017,10 +5017,10 @@
         <v>25</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -5028,7 +5028,7 @@
         <v>1305</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -5046,10 +5046,10 @@
         <v>20</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -5057,7 +5057,7 @@
         <v>1306</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -5075,10 +5075,10 @@
         <v>20</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1420,13 +1420,121 @@
   <si>
     <t>捍关,又叫扞关，是古代蜀、楚通道的名关险隘，两岸高山凌江夹峙，自秦汉以来都是兵家必争之地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南郡（领37县，今驻马店周口阜阳一带，治所平舆）211万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳郡（领36县，今南阳平顶山一带，治所宛县）243万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南尹（领21县，今洛阳郑州开封一带。治所雒阳）101万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫章郡（领21县，今江西一带，治所南昌）166万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平-清平国（领13+7县，今衡水一带。治所信都）141万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原郡（领10县，今德州聊城一带。治所平原）人口100万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内郡（领18县，今焦作新乡一带。治所怀县）80万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海国（领18县，今淮坊青岛一带。治所剧县）85万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀郡（领11+4县，今成都一带，治所成都）人口182万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下邳国（领17县，今宿迁淮安一带。治所下邳）61万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留郡（领17县，今开封新乡一带。治所陈留，今河南开封县陈留）86万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颍川郡（领17县，今许昌漯河一带，治所阳翟）143万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郡（领17县，今襄阳荆州宜昌一带，治所江陵）74万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹阳郡（领16县，今南京镇江常州宣城黄山一带，治所宛陵）63万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钜鹿郡（领15县，今邢台邯郸一带。治所廮陶）60万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>济北-东郡（领15+5县，今濮阳聊城德州一带。治所濮阳，今河南濮阳庆祖北）83万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙郡（领13县，今长沙萍乡一带，治所临湘）人口105万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴陵郡（领14县，今重庆一带，治所江州）人口108万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏郡（领15县，今安阳邯郸一带。治所邺县）69万人口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>勃海郡（领8县，今沧州滨州一带。治所南皮）人口150万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山阳郡（领10县，今菏泽济宁一带。治所昌邑）人口60万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兆尹(领10县，今西安商洛一带。治所长安）人口5万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉领司隶、凉州、上党郡、河西-上郡、陈留郡、颍川郡、南阳郡，共18郡90县422万人口，都城河南尹雒阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵领幽州、冀州（除魏郡-赵国）、五原-云中-朔方郡、雁门-定襄郡、太原郡、平原郡，共19郡81县423万人口，都城渤海郡南皮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏领兖州（除陈留）、青州（除平原）、魏郡、梁国、鲁国、沛国，共15郡66县427万人口，都城山阳郡昌邑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴领扬州、徐州（除琅玡）、汝南郡、陈国、江夏郡，共13郡74县423万人口，都城丹阳郡宛陵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀领益州、交州、荆州（除南阳江夏），共18郡90县421万人口，都城巴陵郡江州</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1441,6 +1549,18 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1471,7 +1591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1483,6 +1603,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5090,37 +5213,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="78.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5130,8 +5259,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5141,32 +5273,44 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5175,6 +5319,107 @@
       </c>
       <c r="C8" t="s">
         <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="385">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,6 +1528,17 @@
   <si>
     <t>蜀领益州、交州、荆州（除南阳江夏），共18郡90县421万人口，都城巴陵郡江州</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapId</t>
+  </si>
+  <si>
+    <t>mapId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地图ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1908,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,15 +1930,15 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="9" width="87.625" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="10" max="10" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1941,22 +1952,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -1970,22 +1984,25 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>29</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>84</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>70</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -1999,22 +2016,25 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>95</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -2028,22 +2048,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>68</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -2057,22 +2080,25 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>31</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>66</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -2086,22 +2112,25 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>36</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>43</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>38</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -2115,22 +2144,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>48</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>107</v>
       </c>
@@ -2144,22 +2176,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>35</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>36</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>9001</v>
       </c>
@@ -2173,22 +2208,25 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>29</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>69</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9002</v>
       </c>
@@ -2202,22 +2240,25 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>32</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>84</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9003</v>
       </c>
@@ -2231,22 +2272,25 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>27</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>93</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9004</v>
       </c>
@@ -2260,22 +2304,25 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>27</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>85</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>9005</v>
       </c>
@@ -2289,22 +2336,25 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
         <v>20</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>90</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>9006</v>
       </c>
@@ -2318,22 +2368,25 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>63</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9007</v>
       </c>
@@ -2347,22 +2400,25 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>59</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>9008</v>
       </c>
@@ -2376,22 +2432,25 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>31</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>58</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>9009</v>
       </c>
@@ -2405,22 +2464,25 @@
         <v>6</v>
       </c>
       <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
         <v>19</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>15</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>9010</v>
       </c>
@@ -2434,22 +2496,25 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>34</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>19</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>9011</v>
       </c>
@@ -2463,22 +2528,25 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>39</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>23</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>9012</v>
       </c>
@@ -2492,22 +2560,25 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>42</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>33</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>201</v>
       </c>
@@ -2521,22 +2592,25 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>55</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>32</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>350</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>202</v>
       </c>
@@ -2550,22 +2624,25 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <v>32</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>69</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>36</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>349</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>203</v>
       </c>
@@ -2579,22 +2656,25 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
         <v>28</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>53</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>31</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>84</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>204</v>
       </c>
@@ -2608,22 +2688,25 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
         <v>54</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>89</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>24</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>205</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>205</v>
       </c>
@@ -2637,22 +2720,25 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
         <v>37</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>90</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>35</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>85</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>206</v>
       </c>
@@ -2666,22 +2752,25 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
         <v>71</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>37</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>46</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>9029</v>
       </c>
@@ -2695,22 +2784,25 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
         <v>31</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>62</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>86</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>301</v>
       </c>
@@ -2724,22 +2816,25 @@
         <v>3</v>
       </c>
       <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
         <v>34</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>95</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>26</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>302</v>
       </c>
@@ -2753,22 +2848,25 @@
         <v>3</v>
       </c>
       <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
         <v>82</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>91</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>38</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>303</v>
       </c>
@@ -2782,22 +2880,25 @@
         <v>3</v>
       </c>
       <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
         <v>63</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>65</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>31</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>304</v>
       </c>
@@ -2811,22 +2912,25 @@
         <v>3</v>
       </c>
       <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
         <v>67</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>62</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>42</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>305</v>
       </c>
@@ -2840,22 +2944,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
         <v>75</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>59</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>22</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>306</v>
       </c>
@@ -2869,22 +2976,25 @@
         <v>3</v>
       </c>
       <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
         <v>116</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>68</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>25</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>307</v>
       </c>
@@ -2898,22 +3008,25 @@
         <v>3</v>
       </c>
       <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
         <v>140</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>48</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>20</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>9013</v>
       </c>
@@ -2927,22 +3040,25 @@
         <v>3</v>
       </c>
       <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
         <v>27</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>96</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>9014</v>
       </c>
@@ -2956,22 +3072,25 @@
         <v>3</v>
       </c>
       <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
         <v>37</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>84</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>9015</v>
       </c>
@@ -2985,22 +3104,25 @@
         <v>3</v>
       </c>
       <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
         <v>39</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>77</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>9016</v>
       </c>
@@ -3014,22 +3136,25 @@
         <v>3</v>
       </c>
       <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
         <v>46</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>78</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>9017</v>
       </c>
@@ -3043,22 +3168,25 @@
         <v>3</v>
       </c>
       <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
         <v>62</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>130</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>401</v>
       </c>
@@ -3072,22 +3200,25 @@
         <v>4</v>
       </c>
       <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
         <v>39</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>46</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>21</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>402</v>
       </c>
@@ -3101,22 +3232,25 @@
         <v>4</v>
       </c>
       <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
         <v>34</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>61</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>20</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>403</v>
       </c>
@@ -3130,22 +3264,25 @@
         <v>4</v>
       </c>
       <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
         <v>27</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>21</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>12</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>404</v>
       </c>
@@ -3159,22 +3296,25 @@
         <v>4</v>
       </c>
       <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
         <v>26</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>40</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>5</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>405</v>
       </c>
@@ -3188,22 +3328,25 @@
         <v>4</v>
       </c>
       <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
         <v>26</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>55</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>21</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>406</v>
       </c>
@@ -3217,22 +3360,25 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
         <v>37</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>72</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>13</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>407</v>
       </c>
@@ -3246,22 +3392,25 @@
         <v>4</v>
       </c>
       <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
         <v>12</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>130</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>26</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>408</v>
       </c>
@@ -3275,22 +3424,25 @@
         <v>4</v>
       </c>
       <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
         <v>12</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>154</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>4</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>409</v>
       </c>
@@ -3304,22 +3456,25 @@
         <v>4</v>
       </c>
       <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
         <v>45</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>157</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>12</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>501</v>
       </c>
@@ -3333,22 +3488,25 @@
         <v>5</v>
       </c>
       <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
         <v>43</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>103</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>15</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>502</v>
       </c>
@@ -3362,22 +3520,25 @@
         <v>5</v>
       </c>
       <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
         <v>34</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>77</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>13</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>503</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>503</v>
       </c>
@@ -3391,22 +3552,25 @@
         <v>5</v>
       </c>
       <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
         <v>35</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>62</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>16</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>504</v>
       </c>
@@ -3420,22 +3584,25 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
         <v>52</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>57</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>8</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>505</v>
       </c>
@@ -3449,22 +3616,25 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2">
         <v>63</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>16</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>25</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>506</v>
       </c>
@@ -3478,22 +3648,25 @@
         <v>5</v>
       </c>
       <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2">
         <v>79</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>15</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>11</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>505</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>601</v>
       </c>
@@ -3507,22 +3680,25 @@
         <v>6</v>
       </c>
       <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1">
         <v>25</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>33</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>43</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>341</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>602</v>
       </c>
@@ -3536,22 +3712,25 @@
         <v>6</v>
       </c>
       <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
         <v>61</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>31</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>42</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>173</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>603</v>
       </c>
@@ -3565,22 +3744,25 @@
         <v>6</v>
       </c>
       <c r="E57" s="1">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1">
         <v>55</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>61</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>26</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>186</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>604</v>
       </c>
@@ -3594,22 +3776,25 @@
         <v>6</v>
       </c>
       <c r="E58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
         <v>111</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>24</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>20</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>175</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>605</v>
       </c>
@@ -3623,22 +3808,25 @@
         <v>6</v>
       </c>
       <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
         <v>121</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>36</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>27</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>177</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>606</v>
       </c>
@@ -3652,22 +3840,25 @@
         <v>6</v>
       </c>
       <c r="E60" s="1">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1">
         <v>78</v>
-      </c>
-      <c r="F60" s="1">
-        <v>25</v>
       </c>
       <c r="G60" s="1">
         <v>25</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
         <v>180</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>607</v>
       </c>
@@ -3681,22 +3872,25 @@
         <v>6</v>
       </c>
       <c r="E61" s="1">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1">
         <v>89</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>40</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>35</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>182</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>9018</v>
       </c>
@@ -3710,22 +3904,25 @@
         <v>6</v>
       </c>
       <c r="E62" s="1">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1">
         <v>56</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>36</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>183</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>9019</v>
       </c>
@@ -3739,22 +3936,25 @@
         <v>6</v>
       </c>
       <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1">
         <v>65</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>50</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>184</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>9020</v>
       </c>
@@ -3768,22 +3968,25 @@
         <v>6</v>
       </c>
       <c r="E64" s="1">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F64" s="1">
         <v>56</v>
       </c>
       <c r="G64" s="1">
+        <v>56</v>
+      </c>
+      <c r="H64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>185</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>701</v>
       </c>
@@ -3797,22 +4000,25 @@
         <v>7</v>
       </c>
       <c r="E65" s="2">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2">
         <v>79</v>
       </c>
-      <c r="F65" s="2">
+      <c r="G65" s="2">
         <v>83</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>12</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>702</v>
       </c>
@@ -3826,22 +4032,25 @@
         <v>7</v>
       </c>
       <c r="E66" s="2">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2">
         <v>89</v>
       </c>
-      <c r="F66" s="2">
+      <c r="G66" s="2">
         <v>98</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>13</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>703</v>
       </c>
@@ -3855,22 +4064,25 @@
         <v>7</v>
       </c>
       <c r="E67" s="2">
+        <v>7</v>
+      </c>
+      <c r="F67" s="2">
         <v>71</v>
       </c>
-      <c r="F67" s="2">
+      <c r="G67" s="2">
         <v>72</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>12</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>704</v>
       </c>
@@ -3884,22 +4096,25 @@
         <v>7</v>
       </c>
       <c r="E68" s="2">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
         <v>74</v>
       </c>
-      <c r="F68" s="2">
+      <c r="G68" s="2">
         <v>119</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>12</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>705</v>
       </c>
@@ -3913,22 +4128,25 @@
         <v>7</v>
       </c>
       <c r="E69" s="2">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2">
         <v>43</v>
       </c>
-      <c r="F69" s="2">
+      <c r="G69" s="2">
         <v>68</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>13</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>706</v>
       </c>
@@ -3942,22 +4160,25 @@
         <v>7</v>
       </c>
       <c r="E70" s="2">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2">
         <v>16</v>
       </c>
-      <c r="F70" s="2">
+      <c r="G70" s="2">
         <v>21</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>6</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>705</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>801</v>
       </c>
@@ -3971,22 +4192,25 @@
         <v>8</v>
       </c>
       <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1">
         <v>72</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>43</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>14</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>236</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>802</v>
       </c>
@@ -4000,22 +4224,25 @@
         <v>8</v>
       </c>
       <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1">
         <v>48</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>39</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>20</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>242</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>803</v>
       </c>
@@ -4029,22 +4256,25 @@
         <v>8</v>
       </c>
       <c r="E73" s="1">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
         <v>54</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>22</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>8</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>243</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>804</v>
       </c>
@@ -4064,16 +4294,19 @@
         <v>8</v>
       </c>
       <c r="G74" s="1">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1">
         <v>6</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>246</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>805</v>
       </c>
@@ -4087,22 +4320,25 @@
         <v>8</v>
       </c>
       <c r="E75" s="1">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1">
         <v>26</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>40</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>13</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>247</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>9021</v>
       </c>
@@ -4116,22 +4352,25 @@
         <v>8</v>
       </c>
       <c r="E76" s="1">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
         <v>28</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>43</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>249</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>9022</v>
       </c>
@@ -4145,22 +4384,25 @@
         <v>8</v>
       </c>
       <c r="E77" s="1">
+        <v>8</v>
+      </c>
+      <c r="F77" s="1">
         <v>45</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>53</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>250</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>9023</v>
       </c>
@@ -4174,22 +4416,25 @@
         <v>8</v>
       </c>
       <c r="E78" s="1">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
         <v>66</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>51</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>251</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>9024</v>
       </c>
@@ -4203,22 +4448,25 @@
         <v>8</v>
       </c>
       <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1">
         <v>57</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>18</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>252</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>9025</v>
       </c>
@@ -4232,22 +4480,25 @@
         <v>9</v>
       </c>
       <c r="E80" s="2">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2">
         <v>84</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>60</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>0</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>901</v>
       </c>
@@ -4261,22 +4512,25 @@
         <v>9</v>
       </c>
       <c r="E81" s="2">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2">
         <v>73</v>
       </c>
-      <c r="F81" s="2">
+      <c r="G81" s="2">
         <v>60</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>44</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>902</v>
       </c>
@@ -4290,22 +4544,25 @@
         <v>9</v>
       </c>
       <c r="E82" s="2">
+        <v>8</v>
+      </c>
+      <c r="F82" s="2">
         <v>51</v>
       </c>
-      <c r="F82" s="2">
+      <c r="G82" s="2">
         <v>66</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>30</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>903</v>
       </c>
@@ -4319,22 +4576,25 @@
         <v>9</v>
       </c>
       <c r="E83" s="2">
+        <v>8</v>
+      </c>
+      <c r="F83" s="2">
         <v>46</v>
       </c>
-      <c r="F83" s="2">
+      <c r="G83" s="2">
         <v>61</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>26</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>904</v>
       </c>
@@ -4348,22 +4608,25 @@
         <v>9</v>
       </c>
       <c r="E84" s="2">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2">
         <v>39</v>
       </c>
-      <c r="F84" s="2">
+      <c r="G84" s="2">
         <v>67</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>27</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>905</v>
       </c>
@@ -4377,22 +4640,25 @@
         <v>9</v>
       </c>
       <c r="E85" s="2">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2">
         <v>53</v>
       </c>
-      <c r="F85" s="2">
+      <c r="G85" s="2">
         <v>74</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>35</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>906</v>
       </c>
@@ -4406,22 +4672,25 @@
         <v>9</v>
       </c>
       <c r="E86" s="2">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2">
         <v>45</v>
       </c>
-      <c r="F86" s="2">
+      <c r="G86" s="2">
         <v>85</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>32</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>907</v>
       </c>
@@ -4435,22 +4704,25 @@
         <v>9</v>
       </c>
       <c r="E87" s="2">
+        <v>8</v>
+      </c>
+      <c r="F87" s="2">
         <v>47</v>
       </c>
-      <c r="F87" s="2">
+      <c r="G87" s="2">
         <v>88</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>50</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>1001</v>
       </c>
@@ -4464,22 +4736,25 @@
         <v>10</v>
       </c>
       <c r="E88" s="1">
+        <v>9</v>
+      </c>
+      <c r="F88" s="1">
         <v>16</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>65</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>22</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>318</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>1002</v>
       </c>
@@ -4493,22 +4768,25 @@
         <v>10</v>
       </c>
       <c r="E89" s="1">
+        <v>9</v>
+      </c>
+      <c r="F89" s="1">
         <v>10</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>53</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>45</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>319</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>1003</v>
       </c>
@@ -4522,22 +4800,25 @@
         <v>10</v>
       </c>
       <c r="E90" s="1">
+        <v>9</v>
+      </c>
+      <c r="F90" s="1">
         <v>10</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>70</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>21</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>1006</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>1004</v>
       </c>
@@ -4551,22 +4832,25 @@
         <v>10</v>
       </c>
       <c r="E91" s="1">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1">
         <v>17</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>81</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>42</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>321</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>1005</v>
       </c>
@@ -4580,22 +4864,25 @@
         <v>10</v>
       </c>
       <c r="E92" s="1">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1">
         <v>3</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>100</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>24</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>1004</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>1006</v>
       </c>
@@ -4609,22 +4896,25 @@
         <v>10</v>
       </c>
       <c r="E93" s="1">
+        <v>9</v>
+      </c>
+      <c r="F93" s="1">
         <v>15</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>76</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>25</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>322</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>1101</v>
       </c>
@@ -4638,22 +4928,25 @@
         <v>11</v>
       </c>
       <c r="E94" s="2">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2">
         <v>45</v>
       </c>
-      <c r="F94" s="2">
+      <c r="G94" s="2">
         <v>76</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>35</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>1102</v>
       </c>
@@ -4667,22 +4960,25 @@
         <v>11</v>
       </c>
       <c r="E95" s="2">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2">
         <v>37</v>
       </c>
-      <c r="F95" s="2">
+      <c r="G95" s="2">
         <v>80</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>23</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>1103</v>
       </c>
@@ -4696,22 +4992,25 @@
         <v>11</v>
       </c>
       <c r="E96" s="2">
+        <v>9</v>
+      </c>
+      <c r="F96" s="2">
         <v>50</v>
       </c>
-      <c r="F96" s="2">
+      <c r="G96" s="2">
         <v>63</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>25</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>1104</v>
       </c>
@@ -4725,22 +5024,25 @@
         <v>11</v>
       </c>
       <c r="E97" s="2">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2">
         <v>75</v>
       </c>
-      <c r="F97" s="2">
+      <c r="G97" s="2">
         <v>89</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>20</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>1105</v>
       </c>
@@ -4754,22 +5056,25 @@
         <v>11</v>
       </c>
       <c r="E98" s="2">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2">
         <v>55</v>
       </c>
-      <c r="F98" s="2">
+      <c r="G98" s="2">
         <v>71</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>31</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>1201</v>
       </c>
@@ -4783,22 +5088,25 @@
         <v>12</v>
       </c>
       <c r="E99" s="1">
+        <v>9</v>
+      </c>
+      <c r="F99" s="1">
         <v>43</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <v>29</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>43</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>327</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>1202</v>
       </c>
@@ -4812,22 +5120,25 @@
         <v>12</v>
       </c>
       <c r="E100" s="1">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1">
         <v>30</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <v>39</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>41</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>1203</v>
       </c>
@@ -4841,22 +5152,25 @@
         <v>12</v>
       </c>
       <c r="E101" s="1">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1">
         <v>35</v>
       </c>
-      <c r="F101" s="1">
+      <c r="G101" s="1">
         <v>57</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>17</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>330</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>1204</v>
       </c>
@@ -4870,22 +5184,25 @@
         <v>12</v>
       </c>
       <c r="E102" s="1">
+        <v>9</v>
+      </c>
+      <c r="F102" s="1">
         <v>24</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <v>61</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>21</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>331</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>1205</v>
       </c>
@@ -4899,22 +5216,25 @@
         <v>12</v>
       </c>
       <c r="E103" s="1">
+        <v>9</v>
+      </c>
+      <c r="F103" s="1">
         <v>35</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <v>49</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>40</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>332</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>1206</v>
       </c>
@@ -4928,22 +5248,25 @@
         <v>12</v>
       </c>
       <c r="E104" s="1">
+        <v>9</v>
+      </c>
+      <c r="F104" s="1">
         <v>38</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>43</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>22</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>333</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>9026</v>
       </c>
@@ -4957,22 +5280,25 @@
         <v>12</v>
       </c>
       <c r="E105" s="1">
+        <v>9</v>
+      </c>
+      <c r="F105" s="1">
         <v>41</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <v>29</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>334</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>9027</v>
       </c>
@@ -4986,22 +5312,25 @@
         <v>12</v>
       </c>
       <c r="E106" s="1">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1">
         <v>33</v>
       </c>
-      <c r="F106" s="1">
+      <c r="G106" s="1">
         <v>35</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>337</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>9028</v>
       </c>
@@ -5015,22 +5344,25 @@
         <v>12</v>
       </c>
       <c r="E107" s="1">
+        <v>9</v>
+      </c>
+      <c r="F107" s="1">
         <v>22</v>
       </c>
-      <c r="F107" s="1">
+      <c r="G107" s="1">
         <v>50</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>339</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>1301</v>
       </c>
@@ -5044,22 +5376,25 @@
         <v>13</v>
       </c>
       <c r="E108" s="2">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
         <v>52</v>
       </c>
-      <c r="F108" s="2">
+      <c r="G108" s="2">
         <v>20</v>
       </c>
-      <c r="G108" s="2">
+      <c r="H108" s="2">
         <v>41</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>1302</v>
       </c>
@@ -5073,22 +5408,25 @@
         <v>13</v>
       </c>
       <c r="E109" s="2">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2">
         <v>68</v>
       </c>
-      <c r="F109" s="2">
+      <c r="G109" s="2">
         <v>35</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <v>50</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>1303</v>
       </c>
@@ -5102,22 +5440,25 @@
         <v>13</v>
       </c>
       <c r="E110" s="2">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
         <v>48</v>
       </c>
-      <c r="F110" s="2">
+      <c r="G110" s="2">
         <v>46</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <v>22</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>1304</v>
       </c>
@@ -5131,22 +5472,25 @@
         <v>13</v>
       </c>
       <c r="E111" s="2">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2">
         <v>55</v>
       </c>
-      <c r="F111" s="2">
+      <c r="G111" s="2">
         <v>59</v>
       </c>
-      <c r="G111" s="2">
+      <c r="H111" s="2">
         <v>25</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>1305</v>
       </c>
@@ -5160,22 +5504,25 @@
         <v>13</v>
       </c>
       <c r="E112" s="2">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2">
         <v>53</v>
       </c>
-      <c r="F112" s="2">
+      <c r="G112" s="2">
         <v>36</v>
       </c>
-      <c r="G112" s="2">
+      <c r="H112" s="2">
         <v>20</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="J112" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>1306</v>
       </c>
@@ -5189,18 +5536,21 @@
         <v>13</v>
       </c>
       <c r="E113" s="2">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2">
         <v>36</v>
       </c>
-      <c r="F113" s="2">
+      <c r="G113" s="2">
         <v>60</v>
       </c>
-      <c r="G113" s="2">
+      <c r="H113" s="2">
         <v>20</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" s="3" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5213,10 +5563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5279,146 +5629,155 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>359</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D13" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D14" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D20" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D21" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D22" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="4"/>
-    </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="4" t="s">
-        <v>377</v>
-      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D25" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D26" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D27" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D28" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="4" t="s">
         <v>381</v>
       </c>
     </row>

--- a/tbl打包工具/excel/cityConfig.xlsx
+++ b/tbl打包工具/excel/cityConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="19200" windowHeight="11340"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="684">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1533,10 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7014;7015;9010;9019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>箕关-上党</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1793,10 +1789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>706;906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>704;808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1857,10 +1849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>608;7034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南蛮，南方额头有纹饰的族群即是南蛮，是先秦时代中原王朝对中原以南各部落的称呼。随着中原政治经济文化的持续扩张和影响，“南蛮”的地理区域实际上已经囊括了整个东南亚。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2017,10 +2005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>508;7026;7027;7028;7029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱提越嶲郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2612,10 +2596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>706;5010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>706;5010;7039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2656,10 +2636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>901;903;7048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2;13;20</t>
   </si>
   <si>
@@ -2751,6 +2727,22 @@
   </si>
   <si>
     <t>郡下辖的县名称（游戏中用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7014;9010;9019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>508;7026;7027;7029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>902;7048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;903;5013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2883,12 +2875,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2930,7 +2925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2965,7 +2960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3176,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F139" activeCellId="1" sqref="F139 F139"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="J204" activeCellId="1" sqref="J204 J204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3212,22 +3207,22 @@
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>14</v>
@@ -3259,13 +3254,13 @@
         <v>14150</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>295</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>115</v>
@@ -3297,13 +3292,13 @@
         <v>74158</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>116</v>
@@ -3335,13 +3330,13 @@
         <v>10594</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>64</v>
@@ -3373,13 +3368,13 @@
         <v>61492</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>296</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>66</v>
@@ -3390,7 +3385,7 @@
         <v>5001</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -3417,7 +3412,7 @@
         <v>104</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>67</v>
@@ -3428,7 +3423,7 @@
         <v>5002</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
@@ -3455,7 +3450,7 @@
         <v>102</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>68</v>
@@ -3466,7 +3461,7 @@
         <v>5003</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3493,7 +3488,7 @@
         <v>101</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>69</v>
@@ -3504,7 +3499,7 @@
         <v>7001</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -3531,7 +3526,7 @@
         <v>297</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>70</v>
@@ -3563,13 +3558,13 @@
         <v>9170</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>298</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>114</v>
@@ -3601,13 +3596,13 @@
         <v>84550</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>300</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>117</v>
@@ -3639,13 +3634,13 @@
         <v>68456</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>120</v>
@@ -3677,13 +3672,13 @@
         <v>10352</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>299</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>121</v>
@@ -3715,16 +3710,16 @@
         <v>20123</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -3753,13 +3748,13 @@
         <v>82218</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>308</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>118</v>
@@ -3770,7 +3765,7 @@
         <v>7002</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -3832,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>77</v>
@@ -3905,13 +3900,13 @@
         <v>93754</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>302</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>311</v>
@@ -3943,13 +3938,13 @@
         <v>132389</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>313</v>
@@ -3981,13 +3976,13 @@
         <v>97412</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>303</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>123</v>
@@ -4019,13 +4014,13 @@
         <v>97500</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>122</v>
@@ -4057,13 +4052,13 @@
         <v>109517</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>304</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>124</v>
@@ -4095,13 +4090,13 @@
         <v>131440</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>305</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>150</v>
@@ -4133,13 +4128,13 @@
         <v>73964</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>306</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>125</v>
@@ -4171,13 +4166,13 @@
         <v>32719</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>315</v>
@@ -4188,7 +4183,7 @@
         <v>7003</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -4226,7 +4221,7 @@
         <v>7004</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
@@ -4250,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -4285,13 +4280,13 @@
         <v>31862</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>89</v>
@@ -4323,13 +4318,13 @@
         <v>130902</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>105</v>
@@ -4361,13 +4356,13 @@
         <v>76222</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>126</v>
@@ -4399,13 +4394,13 @@
         <v>31698</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>127</v>
@@ -4437,13 +4432,13 @@
         <v>25169</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>128</v>
@@ -4475,13 +4470,13 @@
         <v>10351</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>129</v>
@@ -4530,7 +4525,7 @@
         <v>7005</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
@@ -4592,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>27</v>
@@ -4630,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>28</v>
@@ -4668,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>97</v>
@@ -4817,13 +4812,13 @@
         <v>105588</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>88</v>
@@ -4855,13 +4850,13 @@
         <v>78544</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>317</v>
@@ -4893,13 +4888,13 @@
         <v>114415</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>346</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>319</v>
@@ -4931,13 +4926,13 @@
         <v>94400</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>347</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>320</v>
@@ -4948,7 +4943,7 @@
         <v>304</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C47" s="7">
         <v>2</v>
@@ -4969,16 +4964,16 @@
         <v>138641</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>348</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -5007,13 +5002,13 @@
         <v>104297</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J48" s="7">
         <v>304</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>130</v>
@@ -5024,7 +5019,7 @@
         <v>7008</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C49" s="7">
         <v>5</v>
@@ -5048,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5086,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>86</v>
@@ -5121,13 +5116,13 @@
         <v>50840</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>349</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>131</v>
@@ -5159,13 +5154,13 @@
         <v>118784</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>350</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L52" s="11" t="s">
         <v>109</v>
@@ -5197,13 +5192,13 @@
         <v>86170</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>351</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>111</v>
@@ -5235,13 +5230,13 @@
         <v>126389</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>352</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>132</v>
@@ -5273,13 +5268,13 @@
         <v>93907</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>353</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>133</v>
@@ -5311,13 +5306,13 @@
         <v>116431</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>354</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>140</v>
@@ -5328,7 +5323,7 @@
         <v>7009</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C57" s="7">
         <v>5</v>
@@ -5387,13 +5382,13 @@
         <v>63929</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>356</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>136</v>
@@ -5425,13 +5420,13 @@
         <v>45689</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>357</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>322</v>
@@ -5463,13 +5458,13 @@
         <v>85012</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>141</v>
@@ -5501,13 +5496,13 @@
         <v>119898</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>358</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>142</v>
@@ -5539,13 +5534,13 @@
         <v>83715</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>359</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>144</v>
@@ -5577,13 +5572,13 @@
         <v>136880</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>146</v>
@@ -5615,13 +5610,13 @@
         <v>127529</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>367</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>148</v>
@@ -5653,13 +5648,13 @@
         <v>119310</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>363</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L65" s="11" t="s">
         <v>151</v>
@@ -5881,13 +5876,13 @@
         <v>108447</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>371</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L71" s="11" t="s">
         <v>324</v>
@@ -5919,13 +5914,13 @@
         <v>120495</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>375</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L72" s="11" t="s">
         <v>326</v>
@@ -5957,13 +5952,13 @@
         <v>133300</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>376</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="L73" s="11" t="s">
         <v>153</v>
@@ -5995,13 +5990,13 @@
         <v>112653</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>372</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>154</v>
@@ -6033,13 +6028,13 @@
         <v>213440</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>373</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L75" s="11" t="s">
         <v>162</v>
@@ -6071,13 +6066,13 @@
         <v>204448</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>374</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L76" s="11" t="s">
         <v>163</v>
@@ -6109,13 +6104,13 @@
         <v>154564</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>377</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L77" s="11" t="s">
         <v>158</v>
@@ -6126,7 +6121,7 @@
         <v>7013</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C78" s="7">
         <v>5</v>
@@ -6185,13 +6180,13 @@
         <v>109770</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>164</v>
@@ -6202,7 +6197,7 @@
         <v>402</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C80" s="5">
         <v>2</v>
@@ -6223,16 +6218,16 @@
         <v>103543</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>379</v>
+        <v>680</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -6261,13 +6256,13 @@
         <v>138486</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>166</v>
@@ -6299,13 +6294,13 @@
         <v>56815</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>168</v>
@@ -6337,13 +6332,13 @@
         <v>153299</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>172</v>
@@ -6375,13 +6370,13 @@
         <v>87090</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>171</v>
@@ -6413,13 +6408,13 @@
         <v>107352</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>192</v>
@@ -6454,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>30</v>
@@ -6468,7 +6463,7 @@
         <v>7015</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" s="5">
         <v>5</v>
@@ -6492,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -6530,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>362</v>
@@ -6568,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>366</v>
@@ -6606,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>31</v>
@@ -6644,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>32</v>
@@ -6682,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>33</v>
@@ -6720,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>174</v>
@@ -6758,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>176</v>
@@ -6772,7 +6767,7 @@
         <v>9012</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C95" s="5">
         <v>3</v>
@@ -6796,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -6834,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>178</v>
@@ -6872,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>180</v>
@@ -6910,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>182</v>
@@ -6948,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>184</v>
@@ -6986,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>34</v>
@@ -7024,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>186</v>
@@ -7062,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>188</v>
@@ -7076,7 +7071,7 @@
         <v>9020</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C103" s="5">
         <v>3</v>
@@ -7100,10 +7095,10 @@
         <v>0</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>190</v>
@@ -7135,13 +7130,13 @@
         <v>158551</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>194</v>
@@ -7173,13 +7168,13 @@
         <v>142565</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>195</v>
@@ -7211,13 +7206,13 @@
         <v>60397</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>197</v>
@@ -7249,13 +7244,13 @@
         <v>107344</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>212</v>
@@ -7290,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>56</v>
@@ -7304,7 +7299,7 @@
         <v>7022</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C109" s="5">
         <v>5</v>
@@ -7328,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
@@ -7366,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>35</v>
@@ -7404,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>199</v>
@@ -7439,13 +7434,13 @@
         <v>10406</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L112" s="11" t="s">
         <v>202</v>
@@ -7477,13 +7472,13 @@
         <v>12156</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L113" s="11" t="s">
         <v>204</v>
@@ -7515,13 +7510,13 @@
         <v>13420</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L114" s="11" t="s">
         <v>206</v>
@@ -7553,13 +7548,13 @@
         <v>73858</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L115" s="11" t="s">
         <v>208</v>
@@ -7591,13 +7586,13 @@
         <v>13122</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K116" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L116" s="11" t="s">
         <v>210</v>
@@ -7629,13 +7624,13 @@
         <v>56094</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L117" s="11" t="s">
         <v>330</v>
@@ -7667,13 +7662,13 @@
         <v>55628</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>240</v>
@@ -7705,13 +7700,13 @@
         <v>20102</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>214</v>
@@ -7743,13 +7738,13 @@
         <v>127423</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>331</v>
@@ -7784,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>36</v>
@@ -7936,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>37</v>
@@ -7974,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>38</v>
@@ -8012,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>39</v>
@@ -8050,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>40</v>
@@ -8088,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>41</v>
@@ -8126,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>44</v>
@@ -8164,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>57</v>
@@ -8202,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>222</v>
@@ -8240,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>224</v>
@@ -8278,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>500</v>
+        <v>681</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>226</v>
@@ -8313,13 +8308,13 @@
         <v>115539</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>231</v>
@@ -8351,13 +8346,13 @@
         <v>130691</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K136" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L136" s="10" t="s">
         <v>230</v>
@@ -8389,13 +8384,13 @@
         <v>127865</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L137" s="10" t="s">
         <v>233</v>
@@ -8427,13 +8422,13 @@
         <v>121452</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L138" s="10" t="s">
         <v>235</v>
@@ -8465,13 +8460,13 @@
         <v>112713</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L139" s="10" t="s">
         <v>238</v>
@@ -8482,7 +8477,7 @@
         <v>606</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C140" s="5">
         <v>2</v>
@@ -8503,16 +8498,16 @@
         <v>35120</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K140" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -8541,13 +8536,13 @@
         <v>53523</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K141" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L141" s="10" t="s">
         <v>241</v>
@@ -8579,13 +8574,13 @@
         <v>69036</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L142" s="10" t="s">
         <v>242</v>
@@ -8617,13 +8612,13 @@
         <v>33897</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J143" s="5">
         <v>608</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L143" s="10" t="s">
         <v>244</v>
@@ -8672,7 +8667,7 @@
         <v>7031</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C145" s="5">
         <v>5</v>
@@ -8696,13 +8691,13 @@
         <v>0</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
@@ -8734,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K146" s="5" t="s">
         <v>42</v>
@@ -8772,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K147" s="5" t="s">
         <v>43</v>
@@ -8786,7 +8781,7 @@
         <v>7034</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C148" s="5">
         <v>5</v>
@@ -8810,13 +8805,13 @@
         <v>0</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
@@ -8848,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K149" s="5" t="s">
         <v>58</v>
@@ -8886,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K150" s="5" t="s">
         <v>245</v>
@@ -8924,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K151" s="5" t="s">
         <v>247</v>
@@ -8959,13 +8954,13 @@
         <v>158434</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L152" s="11" t="s">
         <v>250</v>
@@ -8997,13 +8992,13 @@
         <v>122570</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L153" s="11" t="s">
         <v>252</v>
@@ -9035,13 +9030,13 @@
         <v>126672</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K154" s="11" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L154" s="11" t="s">
         <v>253</v>
@@ -9073,13 +9068,13 @@
         <v>125854</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L155" s="11" t="s">
         <v>255</v>
@@ -9111,13 +9106,13 @@
         <v>92284</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K156" s="11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L156" s="11" t="s">
         <v>257</v>
@@ -9149,13 +9144,13 @@
         <v>95029</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L157" s="11" t="s">
         <v>264</v>
@@ -9166,7 +9161,7 @@
         <v>7036</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C158" s="7">
         <v>5</v>
@@ -9190,13 +9185,13 @@
         <v>0</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -9228,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>46</v>
@@ -9242,7 +9237,7 @@
         <v>7038</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C160" s="7">
         <v>5</v>
@@ -9266,13 +9261,13 @@
         <v>0</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -9304,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="K161" s="7" t="s">
         <v>47</v>
@@ -9342,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K162" s="7" t="s">
         <v>336</v>
@@ -9380,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K163" s="7" t="s">
         <v>49</v>
@@ -9418,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K164" s="7" t="s">
         <v>50</v>
@@ -9432,7 +9427,7 @@
         <v>7043</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C165" s="7">
         <v>5</v>
@@ -9456,13 +9451,13 @@
         <v>0</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -9470,7 +9465,7 @@
         <v>9027</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C166" s="7">
         <v>3</v>
@@ -9494,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K166" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L166" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="L166" s="11" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -9532,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K167" s="7" t="s">
         <v>259</v>
@@ -9570,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K168" s="7" t="s">
         <v>261</v>
@@ -9584,7 +9579,7 @@
         <v>9030</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C169" s="7">
         <v>3</v>
@@ -9608,13 +9603,13 @@
         <v>0</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L169" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -9643,13 +9638,13 @@
         <v>109436</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L170" s="10" t="s">
         <v>265</v>
@@ -9681,13 +9676,13 @@
         <v>156518</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L171" s="10" t="s">
         <v>267</v>
@@ -9719,13 +9714,13 @@
         <v>154164</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L172" s="10" t="s">
         <v>269</v>
@@ -9757,13 +9752,13 @@
         <v>123090</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L173" s="10" t="s">
         <v>271</v>
@@ -9795,16 +9790,16 @@
         <v>39613</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="K174" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L174" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
@@ -9812,7 +9807,7 @@
         <v>806</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C175" s="5">
         <v>2</v>
@@ -9833,16 +9828,16 @@
         <v>121392</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K175" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L175" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -9871,13 +9866,13 @@
         <v>101346</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="K176" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L176" s="10" t="s">
         <v>274</v>
@@ -9909,13 +9904,13 @@
         <v>136496</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K177" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L177" s="10" t="s">
         <v>276</v>
@@ -9926,7 +9921,7 @@
         <v>5010</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C178" s="5">
         <v>4</v>
@@ -9950,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L178" s="10" t="s">
         <v>333</v>
@@ -9988,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K179" s="5" t="s">
         <v>277</v>
@@ -10002,7 +9997,7 @@
         <v>5012</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C180" s="5">
         <v>4</v>
@@ -10029,7 +10024,7 @@
         <v>805</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L180" s="10"/>
     </row>
@@ -10062,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="K181" s="5" t="s">
         <v>335</v>
@@ -10100,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K182" s="5" t="s">
         <v>52</v>
@@ -10138,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K183" s="5" t="s">
         <v>53</v>
@@ -10176,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K184" s="5" t="s">
         <v>54</v>
@@ -10214,13 +10209,13 @@
         <v>0</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K185" s="5" t="s">
         <v>279</v>
       </c>
       <c r="L185" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="27" x14ac:dyDescent="0.15">
@@ -10252,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K186" s="5" t="s">
         <v>280</v>
@@ -10290,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K187" s="5" t="s">
         <v>282</v>
@@ -10304,7 +10299,7 @@
         <v>9034</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C188" s="5">
         <v>3</v>
@@ -10331,10 +10326,10 @@
         <v>802</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L188" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="1:12" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -10363,13 +10358,13 @@
         <v>34513</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J189" s="7">
         <v>902</v>
       </c>
       <c r="K189" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L189" s="11" t="s">
         <v>286</v>
@@ -10401,13 +10396,13 @@
         <v>121634</v>
       </c>
       <c r="I190" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="K190" s="11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L190" s="11" t="s">
         <v>334</v>
@@ -10439,13 +10434,13 @@
         <v>53121</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K191" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L191" s="11" t="s">
         <v>289</v>
@@ -10477,13 +10472,13 @@
         <v>51913</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J192" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K192" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L192" s="11" t="s">
         <v>290</v>
@@ -10515,13 +10510,13 @@
         <v>71395</v>
       </c>
       <c r="I193" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K193" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="L193" s="11" t="s">
         <v>292</v>
@@ -10553,13 +10548,13 @@
         <v>112477</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K194" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L194" s="11" t="s">
         <v>294</v>
@@ -10570,7 +10565,7 @@
         <v>5013</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C195" s="7">
         <v>4</v>
@@ -10594,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>460</v>
+        <v>682</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L195" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="196" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -10608,7 +10603,7 @@
         <v>7048</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C196" s="7">
         <v>5</v>
@@ -10632,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -10646,7 +10641,7 @@
         <v>7049</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C197" s="7">
         <v>5</v>
@@ -10670,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L197" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -10708,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K198" s="7" t="s">
         <v>55</v>
@@ -10814,19 +10809,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B9" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C9" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -10838,28 +10833,28 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D12" s="3"/>
     </row>
